--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_4_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_4_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-482357.4272304066</v>
+        <v>-484338.343810832</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.06655359</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13825762.49534463</v>
+        <v>13834211.70025839</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>234.4039748642743</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>62.61672643329979</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>213.6743229269905</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>100.5586027548383</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>280.3612400821502</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>133.5738774143954</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>99.660750746876</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>275.0992346450739</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>249.2819505385571</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>135.738211352776</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,19 +1300,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>115.1349433457274</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>174.2182836623766</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>45.21952718910488</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985788</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>223.7997036342632</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>41.18921109332399</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>241.3042408598808</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>170.4824349897574</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.9346114914872</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>79.4499962177071</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>44.00734609152013</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>58.19095390327369</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>106.5357854200305</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>143.0053956628091</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.315822205651</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2886,10 +2886,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533806</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>8.517127121907762</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801246</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437453</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>34.09544203220764</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897938</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571519</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523596</v>
+        <v>54.76109577523571</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550465</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298325</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700206</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952713</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080343</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604804</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235381</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3436,7 +3436,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789547</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1341.294330781294</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1182.361274360975</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>771.3753695713672</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1731.433662757106</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y2" t="n">
-        <v>1341.294330781294</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>415.489254012808</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>512.2963347852319</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>512.2963347852319</v>
+        <v>597.1377188430478</v>
       </c>
       <c r="V4" t="n">
-        <v>512.2963347852319</v>
+        <v>597.1377188430478</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>597.1377188430478</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>597.1377188430478</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>597.1377188430478</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2130.832271356581</v>
+        <v>1646.746562480844</v>
       </c>
       <c r="C5" t="n">
-        <v>1761.869754416169</v>
+        <v>1646.746562480844</v>
       </c>
       <c r="D5" t="n">
-        <v>1403.604055809419</v>
+        <v>1646.746562480844</v>
       </c>
       <c r="E5" t="n">
-        <v>1017.815803211174</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>606.8298984215669</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>188.8660903197538</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y5" t="n">
-        <v>2130.832271356581</v>
+        <v>2033.346402544966</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.6104068172089</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>154.6104068172089</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>154.6104068172089</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>154.6104068172089</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>154.6104068172089</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>154.6104068172089</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>154.6104068172089</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X7" t="n">
-        <v>154.6104068172089</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>154.6104068172089</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>877.1727159660345</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>877.1727159660345</v>
+        <v>864.6405432696253</v>
       </c>
       <c r="D8" t="n">
-        <v>877.1727159660345</v>
+        <v>864.6405432696253</v>
       </c>
       <c r="E8" t="n">
-        <v>877.1727159660345</v>
+        <v>478.852290671381</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2560.039786621478</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2341.405119593541</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2341.405119593541</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="X8" t="n">
-        <v>1267.312047941846</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="Y8" t="n">
-        <v>877.1727159660345</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>552.1509199010035</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C10" t="n">
-        <v>552.1509199010035</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D10" t="n">
-        <v>552.1509199010035</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="E10" t="n">
-        <v>404.2378263186104</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
         <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>552.1509199010035</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>552.1509199010035</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>552.1509199010035</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5027,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>190.6805289025654</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>339.7502131046252</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>437.6964226305945</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C13" t="n">
-        <v>437.6964226305945</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D13" t="n">
-        <v>437.6964226305945</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>289.7833290482012</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>142.8933815502908</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771459</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655724</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286118</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305945</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="Y13" t="n">
-        <v>437.6964226305945</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602853</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5437,49 +5437,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>1255.17461312368</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1000.490124917793</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="W16" t="n">
-        <v>711.072954880832</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="X16" t="n">
-        <v>711.072954880832</v>
+        <v>755.1831334811259</v>
       </c>
       <c r="Y16" t="n">
-        <v>711.072954880832</v>
+        <v>755.1831334811259</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,13 +5549,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.2811958984814</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705745</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705745</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705745</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="W19" t="n">
-        <v>1326.711790770269</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="X19" t="n">
-        <v>1098.722239872251</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y19" t="n">
-        <v>877.9296607287212</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2187.63534213943</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2392.657822921639</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>496.0629430245498</v>
+        <v>310.6051391271019</v>
       </c>
       <c r="C22" t="n">
-        <v>496.0629430245498</v>
+        <v>141.6689561991951</v>
       </c>
       <c r="D22" t="n">
-        <v>496.0629430245498</v>
+        <v>141.6689561991951</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925224</v>
+        <v>141.6689561991951</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925224</v>
+        <v>141.6689561991951</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.92115703528</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W22" t="n">
-        <v>898.5039869983196</v>
+        <v>531.397718270632</v>
       </c>
       <c r="X22" t="n">
-        <v>898.5039869983196</v>
+        <v>531.397718270632</v>
       </c>
       <c r="Y22" t="n">
-        <v>677.7114078547895</v>
+        <v>310.6051391271019</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,13 +5987,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6072,13 +6072,13 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
         <v>2112.811595180915</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.3337308726216</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1240.217519157017</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1240.217519157017</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>985.5330309511296</v>
+        <v>755.1831334811261</v>
       </c>
       <c r="W25" t="n">
-        <v>696.115860914169</v>
+        <v>755.1831334811261</v>
       </c>
       <c r="X25" t="n">
-        <v>468.1263100161517</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.3337308726216</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
         <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6288,37 +6288,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.08876901822</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298183</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962216</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180914</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6382,52 +6382,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471203</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.84116711973</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035283</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1043.471262426385</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>754.3426236399425</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V28" t="n">
-        <v>499.6581354340557</v>
+        <v>531.3977182706313</v>
       </c>
       <c r="W28" t="n">
-        <v>499.6581354340557</v>
+        <v>241.9805482336707</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6525,43 +6525,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636264</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542144</v>
+        <v>672.9002034592895</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542144</v>
+        <v>559.7248858127534</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452167</v>
+        <v>465.3691116817885</v>
       </c>
       <c r="E31" t="n">
-        <v>338.777042944194</v>
+        <v>373.2168833807661</v>
       </c>
       <c r="F31" t="n">
-        <v>247.647960727654</v>
+        <v>282.0878011642268</v>
       </c>
       <c r="G31" t="n">
-        <v>247.647960727654</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569679</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737481</v>
+        <v>1369.704507242554</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818903</v>
+        <v>1136.048202486964</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652434</v>
+        <v>963.8195168703178</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030837</v>
+        <v>798.7878030081584</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6704,7 +6704,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,19 +6926,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7196,28 +7196,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7257,16 +7257,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7357,25 +7357,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7433,7 +7433,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670535</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208172</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>453.5018714396643</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>1108.225203574964</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1588.582050858714</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2122.113955530639</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>2668.892772589421</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3548.857422918876</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4262.212510365822</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4720.69071287481</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208808</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587483</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.1712248333966</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>668.684674853563</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D46" t="n">
-        <v>566.0176683893006</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549808</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051438</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
-        <v>245.8606895279356</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>147.093135693867</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>188.845109159628</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>439.337677360911</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618138</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.97905387204</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.81403804486</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730926</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133948</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949851</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155631</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>52.49733361305248</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
-        <v>145.2351313103793</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208018</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928253</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208019</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>29.6188222579209</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>121.2740412742727</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>62.72329470232779</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>138.6427690886133</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,19 +23701,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>44.93311153869655</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23941,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>116.0405633468336</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>142.7750438975499</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>66.98396642886208</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>122.4862223718575</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24415,19 +24415,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>163.3566071551156</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>119.1738699690066</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>78.5421653955801</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338616</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700711</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>84.89508926774788</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348209</v>
+        <v>77.19486980261316</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1162500.025101082</v>
+        <v>1162500.025101083</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1162500.025101083</v>
+        <v>1162500.025101082</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1162500.025101083</v>
+        <v>1162500.025101082</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1204395.029014819</v>
+        <v>1219026.318164938</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="C2" t="n">
         <v>246312.5309592849</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
-        <v>234617.4358426252</v>
+        <v>234617.4358426251</v>
       </c>
       <c r="F2" t="n">
         <v>234617.4358426252</v>
@@ -26329,10 +26329,10 @@
         <v>234617.4358426252</v>
       </c>
       <c r="H2" t="n">
-        <v>234617.4358426252</v>
+        <v>234617.4358426251</v>
       </c>
       <c r="I2" t="n">
-        <v>234617.4358426252</v>
+        <v>234617.4358426251</v>
       </c>
       <c r="J2" t="n">
         <v>234617.4358426252</v>
@@ -26347,13 +26347,13 @@
         <v>246312.5309592851</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="O2" t="n">
         <v>246312.5309592851</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.5309592851</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192594</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284538</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086617</v>
+        <v>10342.90680086686</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755737</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26424,13 +26424,13 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
@@ -26439,16 +26439,16 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649867</v>
+        <v>47468.16806649887</v>
       </c>
       <c r="L4" t="n">
         <v>51722.3327936228</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362278</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="N4" t="n">
         <v>51722.33279362279</v>
@@ -26457,7 +26457,7 @@
         <v>51722.33279362282</v>
       </c>
       <c r="P4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.33279362282</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,13 +26485,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>101591.2743431396</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-601005.2036404953</v>
+        <v>-601005.2036404952</v>
       </c>
       <c r="C6" t="n">
-        <v>-11037.32442595076</v>
+        <v>-11037.32442595079</v>
       </c>
       <c r="D6" t="n">
-        <v>-11037.32442595073</v>
+        <v>-11037.3244259507</v>
       </c>
       <c r="E6" t="n">
-        <v>-411833.4721352897</v>
+        <v>-411930.9312612623</v>
       </c>
       <c r="F6" t="n">
-        <v>113326.5643416062</v>
+        <v>113229.1052156341</v>
       </c>
       <c r="G6" t="n">
-        <v>113326.5643416062</v>
+        <v>113229.1052156341</v>
       </c>
       <c r="H6" t="n">
-        <v>113326.5643416063</v>
+        <v>113229.105215634</v>
       </c>
       <c r="I6" t="n">
-        <v>113326.5643416062</v>
+        <v>113229.105215634</v>
       </c>
       <c r="J6" t="n">
-        <v>-63096.65485098779</v>
+        <v>-63194.11397695885</v>
       </c>
       <c r="K6" t="n">
-        <v>55834.30050759489</v>
+        <v>55815.80676966006</v>
       </c>
       <c r="L6" t="n">
-        <v>86532.18554477075</v>
+        <v>86532.18554477002</v>
       </c>
       <c r="M6" t="n">
-        <v>-37925.92288820033</v>
+        <v>-37925.92288820025</v>
       </c>
       <c r="N6" t="n">
-        <v>96875.09234563683</v>
+        <v>96875.09234563691</v>
       </c>
       <c r="O6" t="n">
-        <v>96875.09234563683</v>
+        <v>96875.09234563679</v>
       </c>
       <c r="P6" t="n">
-        <v>-85297.10087893566</v>
+        <v>52712.48704279121</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,16 +26753,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541017</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108394</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>34.04650311750861</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,13 +26981,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.904467235008888e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.394295139198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>179.3801951565207</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>307.1143742451692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>11.3607825310938</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>185.7232714871394</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>101.5691299901116</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>190.3488953499617</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>56.51013809491914</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>11.42376369151708</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>157.5940952031544</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>38.6775014561955</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>41.03594549606771</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>112.3047146742144</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.455191522836685e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855672</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="32">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.40751256795913</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.2481640954534</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>560.035498861915</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349123</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768267</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315253</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686883</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221054</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349844</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523272</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686883</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412243</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37005,10 +37005,10 @@
         <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043168</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221117</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221117</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>485.2089366502531</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165882</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
